--- a/data/pca/factorExposure/factorExposure_2011-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006481810890505489</v>
+        <v>-0.01271330394544575</v>
       </c>
       <c r="C2">
-        <v>0.002346757838760542</v>
+        <v>-0.002534184820398743</v>
       </c>
       <c r="D2">
-        <v>-0.04776174667419012</v>
+        <v>0.0005840295331221817</v>
       </c>
       <c r="E2">
-        <v>0.001013523894614555</v>
+        <v>-0.002862420701853052</v>
       </c>
       <c r="F2">
-        <v>0.006856033159338774</v>
+        <v>0.03467354036661953</v>
       </c>
       <c r="G2">
-        <v>0.01415407500941437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.001298800262817654</v>
+      </c>
+      <c r="H2">
+        <v>0.008783647799183255</v>
+      </c>
+      <c r="I2">
+        <v>-0.04519422967466506</v>
+      </c>
+      <c r="J2">
+        <v>-0.06119316833319115</v>
+      </c>
+      <c r="K2">
+        <v>0.02024021098565067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1046355282849326</v>
+        <v>-0.1139123351098633</v>
       </c>
       <c r="C4">
-        <v>0.02783897003574369</v>
+        <v>-0.06218885675775572</v>
       </c>
       <c r="D4">
-        <v>-0.0465494944883445</v>
+        <v>0.003999027733147672</v>
       </c>
       <c r="E4">
-        <v>0.05995696216401546</v>
+        <v>0.002622678043011696</v>
       </c>
       <c r="F4">
-        <v>0.03530283630076966</v>
+        <v>0.03075585438184885</v>
       </c>
       <c r="G4">
-        <v>0.02840396047080296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07454353096186039</v>
+      </c>
+      <c r="H4">
+        <v>0.1371400033384207</v>
+      </c>
+      <c r="I4">
+        <v>-0.02044168851585043</v>
+      </c>
+      <c r="J4">
+        <v>0.0427771830339634</v>
+      </c>
+      <c r="K4">
+        <v>-0.02515293137403354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1292446155414362</v>
+        <v>-0.1267543579791517</v>
       </c>
       <c r="C6">
-        <v>0.02564102882763591</v>
+        <v>-0.03374590832060904</v>
       </c>
       <c r="D6">
-        <v>-0.03384046823339582</v>
+        <v>0.01420230767276933</v>
       </c>
       <c r="E6">
-        <v>-0.009593245284834481</v>
+        <v>0.01807950547400893</v>
       </c>
       <c r="F6">
-        <v>-0.1386275402915459</v>
+        <v>-0.0053904108088912</v>
       </c>
       <c r="G6">
-        <v>-0.1144344153365878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.08361749016011795</v>
+      </c>
+      <c r="H6">
+        <v>0.0448120617324854</v>
+      </c>
+      <c r="I6">
+        <v>0.1900658772258282</v>
+      </c>
+      <c r="J6">
+        <v>0.3683927080657399</v>
+      </c>
+      <c r="K6">
+        <v>0.1735892341547909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09287366579683982</v>
+        <v>-0.07456076987517447</v>
       </c>
       <c r="C7">
-        <v>0.04192974503621092</v>
+        <v>-0.06675687677036571</v>
       </c>
       <c r="D7">
-        <v>-0.04332125414690111</v>
+        <v>0.03064625312682763</v>
       </c>
       <c r="E7">
-        <v>0.02686270971791666</v>
+        <v>0.00251026660364667</v>
       </c>
       <c r="F7">
-        <v>-0.02062224396469717</v>
+        <v>0.05570058044199044</v>
       </c>
       <c r="G7">
-        <v>0.03226520375522614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03038791155446275</v>
+      </c>
+      <c r="H7">
+        <v>0.03537886052509717</v>
+      </c>
+      <c r="I7">
+        <v>0.009983022642670647</v>
+      </c>
+      <c r="J7">
+        <v>-0.01604027943203523</v>
+      </c>
+      <c r="K7">
+        <v>-0.1026929416463423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04414273961562833</v>
+        <v>-0.05264985080882867</v>
       </c>
       <c r="C8">
-        <v>-0.0222955097269345</v>
+        <v>-0.01699709369174874</v>
       </c>
       <c r="D8">
-        <v>-0.08615738159904002</v>
+        <v>0.01634130847393167</v>
       </c>
       <c r="E8">
-        <v>0.08021881080659386</v>
+        <v>-0.004722967798620004</v>
       </c>
       <c r="F8">
-        <v>0.02147060348660383</v>
+        <v>0.02136168922794119</v>
       </c>
       <c r="G8">
-        <v>0.1284667588416537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.1018938555012976</v>
+      </c>
+      <c r="H8">
+        <v>0.1062538962389358</v>
+      </c>
+      <c r="I8">
+        <v>-0.00631343361933143</v>
+      </c>
+      <c r="J8">
+        <v>0.02802245366559278</v>
+      </c>
+      <c r="K8">
+        <v>-0.01908046002905906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09454426641973757</v>
+        <v>-0.08421812592990038</v>
       </c>
       <c r="C9">
-        <v>0.03772213712731624</v>
+        <v>-0.05490923710473557</v>
       </c>
       <c r="D9">
-        <v>-0.03675197334391701</v>
+        <v>0.01092033716555317</v>
       </c>
       <c r="E9">
-        <v>0.04639812687017436</v>
+        <v>-0.008798826175663219</v>
       </c>
       <c r="F9">
-        <v>0.02284833355074121</v>
+        <v>0.02472460360408801</v>
       </c>
       <c r="G9">
-        <v>0.06651180148989401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.07234085272351717</v>
+      </c>
+      <c r="H9">
+        <v>0.1194821248343758</v>
+      </c>
+      <c r="I9">
+        <v>0.002811528039316823</v>
+      </c>
+      <c r="J9">
+        <v>0.01491120970199842</v>
+      </c>
+      <c r="K9">
+        <v>-0.0007970614425214397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03733597141542683</v>
+        <v>-0.09889682936977291</v>
       </c>
       <c r="C10">
-        <v>-0.1555929927298477</v>
+        <v>0.1657054130305794</v>
       </c>
       <c r="D10">
-        <v>-0.09165003231495188</v>
+        <v>-0.04199940653684191</v>
       </c>
       <c r="E10">
-        <v>0.02693399941473408</v>
+        <v>0.01156752360917575</v>
       </c>
       <c r="F10">
-        <v>-0.03405771256897633</v>
+        <v>0.05215773201404489</v>
       </c>
       <c r="G10">
-        <v>0.01506767702240941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.004399223476846055</v>
+      </c>
+      <c r="H10">
+        <v>-0.01076320774864176</v>
+      </c>
+      <c r="I10">
+        <v>0.01843954211909643</v>
+      </c>
+      <c r="J10">
+        <v>0.03565722769031145</v>
+      </c>
+      <c r="K10">
+        <v>-0.05527620324448185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07664899423683483</v>
+        <v>-0.07596975051633142</v>
       </c>
       <c r="C11">
-        <v>0.06035823425549541</v>
+        <v>-0.0668236678520851</v>
       </c>
       <c r="D11">
-        <v>-0.007158983238555659</v>
+        <v>0.03463500673731378</v>
       </c>
       <c r="E11">
-        <v>-0.006991585747270036</v>
+        <v>-0.03336043171020375</v>
       </c>
       <c r="F11">
-        <v>0.01490523147726114</v>
+        <v>0.01083625892377396</v>
       </c>
       <c r="G11">
-        <v>0.1480471146765789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.08083076721818581</v>
+      </c>
+      <c r="H11">
+        <v>0.1066591350425135</v>
+      </c>
+      <c r="I11">
+        <v>0.0009740595266469015</v>
+      </c>
+      <c r="J11">
+        <v>-0.1136749990666668</v>
+      </c>
+      <c r="K11">
+        <v>0.03010838954957726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07294426676620405</v>
+        <v>-0.07282550027300122</v>
       </c>
       <c r="C12">
-        <v>0.03828266531921457</v>
+        <v>-0.05722315484767473</v>
       </c>
       <c r="D12">
-        <v>-0.001073862389089096</v>
+        <v>0.03934541597531941</v>
       </c>
       <c r="E12">
-        <v>0.03179826951940509</v>
+        <v>-0.04713972822488331</v>
       </c>
       <c r="F12">
-        <v>0.002966167717382984</v>
+        <v>0.01460757902610805</v>
       </c>
       <c r="G12">
-        <v>0.1389222406833055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09895292271714147</v>
+      </c>
+      <c r="H12">
+        <v>0.1055234959435214</v>
+      </c>
+      <c r="I12">
+        <v>0.01707278858107249</v>
+      </c>
+      <c r="J12">
+        <v>-0.09642873258476388</v>
+      </c>
+      <c r="K12">
+        <v>0.01595960017125593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0652687936413737</v>
+        <v>-0.0400535073264426</v>
       </c>
       <c r="C13">
-        <v>0.007184738493999413</v>
+        <v>-0.02790394515759935</v>
       </c>
       <c r="D13">
-        <v>-0.0100831323830274</v>
+        <v>0.01406236867061431</v>
       </c>
       <c r="E13">
-        <v>0.02329197877226209</v>
+        <v>0.01402919950499188</v>
       </c>
       <c r="F13">
-        <v>0.04045787642710545</v>
+        <v>0.01911585935139653</v>
       </c>
       <c r="G13">
-        <v>0.0638208374277958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04358130275635994</v>
+      </c>
+      <c r="H13">
+        <v>0.04300899861384114</v>
+      </c>
+      <c r="I13">
+        <v>0.03079562935076108</v>
+      </c>
+      <c r="J13">
+        <v>0.03834890405714825</v>
+      </c>
+      <c r="K13">
+        <v>-0.04010666535614373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.0550278266616822</v>
+        <v>-0.04449800770517318</v>
       </c>
       <c r="C14">
-        <v>0.001864956281311926</v>
+        <v>-0.02176944959169673</v>
       </c>
       <c r="D14">
-        <v>-0.03714355783510009</v>
+        <v>-0.0002922527666789792</v>
       </c>
       <c r="E14">
-        <v>0.0253623988996301</v>
+        <v>-0.01496330131925137</v>
       </c>
       <c r="F14">
-        <v>0.008620893537338296</v>
+        <v>0.005646101788871865</v>
       </c>
       <c r="G14">
-        <v>0.07203877212929821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05025461986259799</v>
+      </c>
+      <c r="H14">
+        <v>0.05127087839945277</v>
+      </c>
+      <c r="I14">
+        <v>-0.02260793338473309</v>
+      </c>
+      <c r="J14">
+        <v>0.04678935075038357</v>
+      </c>
+      <c r="K14">
+        <v>-0.0285924426830835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03957995007739153</v>
+        <v>-0.02404664635076778</v>
       </c>
       <c r="C15">
-        <v>-0.01170617731632497</v>
+        <v>-0.00837155855483606</v>
       </c>
       <c r="D15">
-        <v>-0.009716003212141456</v>
+        <v>-0.000392017422181559</v>
       </c>
       <c r="E15">
-        <v>0.007707415797652072</v>
+        <v>0.03697711012236595</v>
       </c>
       <c r="F15">
-        <v>0.02298460595840443</v>
+        <v>0.009090534151989273</v>
       </c>
       <c r="G15">
-        <v>0.0222081791510083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01544691948157216</v>
+      </c>
+      <c r="H15">
+        <v>0.01467580217194201</v>
+      </c>
+      <c r="I15">
+        <v>0.00576188029476523</v>
+      </c>
+      <c r="J15">
+        <v>0.05392763780783973</v>
+      </c>
+      <c r="K15">
+        <v>-0.03803863010674498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.08060573213170935</v>
+        <v>-0.08031599111343934</v>
       </c>
       <c r="C16">
-        <v>0.07059544311450026</v>
+        <v>-0.06670852959080147</v>
       </c>
       <c r="D16">
-        <v>-0.01569760155212674</v>
+        <v>0.04582173886340363</v>
       </c>
       <c r="E16">
-        <v>0.03386644419447545</v>
+        <v>-0.0296678264995261</v>
       </c>
       <c r="F16">
-        <v>0.03760578344891043</v>
+        <v>0.01534067274376649</v>
       </c>
       <c r="G16">
-        <v>0.1101408791406575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1039434718865613</v>
+      </c>
+      <c r="H16">
+        <v>0.09902024532559409</v>
+      </c>
+      <c r="I16">
+        <v>-0.002094299244139987</v>
+      </c>
+      <c r="J16">
+        <v>-0.1177496761620085</v>
+      </c>
+      <c r="K16">
+        <v>0.00989753342156283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05062362960368969</v>
+        <v>-0.0490861897214443</v>
       </c>
       <c r="C20">
-        <v>0.01943260601338731</v>
+        <v>-0.0399004279562765</v>
       </c>
       <c r="D20">
-        <v>-0.01724191426093045</v>
+        <v>-0.01556506281140529</v>
       </c>
       <c r="E20">
-        <v>0.0214926242394114</v>
+        <v>0.005334658163647983</v>
       </c>
       <c r="F20">
-        <v>0.008269868151420235</v>
+        <v>0.01581169164411624</v>
       </c>
       <c r="G20">
-        <v>0.1085672724343823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.06011283114698093</v>
+      </c>
+      <c r="H20">
+        <v>0.04575297794961098</v>
+      </c>
+      <c r="I20">
+        <v>0.004348241305507198</v>
+      </c>
+      <c r="J20">
+        <v>0.02211883401543659</v>
+      </c>
+      <c r="K20">
+        <v>-0.05691072692808429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02667360024372049</v>
+        <v>-0.02697282697951044</v>
       </c>
       <c r="C21">
-        <v>0.03318695396899395</v>
+        <v>-0.02178264575308259</v>
       </c>
       <c r="D21">
-        <v>0.002587841802330731</v>
+        <v>-0.02979521031261284</v>
       </c>
       <c r="E21">
-        <v>0.01059126316884135</v>
+        <v>-0.0007717702681849565</v>
       </c>
       <c r="F21">
-        <v>-0.0897005870361174</v>
+        <v>-0.01467505624555245</v>
       </c>
       <c r="G21">
-        <v>-0.05476081322568506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0530427593538992</v>
+      </c>
+      <c r="H21">
+        <v>0.07379177850633438</v>
+      </c>
+      <c r="I21">
+        <v>0.07337428434428435</v>
+      </c>
+      <c r="J21">
+        <v>0.0351570320819562</v>
+      </c>
+      <c r="K21">
+        <v>-0.1156279810254958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04536432471824788</v>
+        <v>-0.03530959654895092</v>
       </c>
       <c r="C22">
-        <v>0.002527250982290085</v>
+        <v>-0.01773589251391748</v>
       </c>
       <c r="D22">
-        <v>-0.004992593158297731</v>
+        <v>0.04543919535264786</v>
       </c>
       <c r="E22">
-        <v>0.560749958053356</v>
+        <v>0.6238746859885457</v>
       </c>
       <c r="F22">
-        <v>0.08630038515467899</v>
+        <v>0.1955270207116562</v>
       </c>
       <c r="G22">
-        <v>-0.3173463168462464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1012733955569022</v>
+      </c>
+      <c r="H22">
+        <v>-0.1305257890852133</v>
+      </c>
+      <c r="I22">
+        <v>0.01636856358268363</v>
+      </c>
+      <c r="J22">
+        <v>-0.07816533395263196</v>
+      </c>
+      <c r="K22">
+        <v>0.05445042689146017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04539584847035503</v>
+        <v>-0.03551597072528449</v>
       </c>
       <c r="C23">
-        <v>0.003203967667675664</v>
+        <v>-0.01838391884395946</v>
       </c>
       <c r="D23">
-        <v>-0.006157207838449351</v>
+        <v>0.04671688991643694</v>
       </c>
       <c r="E23">
-        <v>0.5605512890925591</v>
+        <v>0.6259486936901618</v>
       </c>
       <c r="F23">
-        <v>0.08708966004746457</v>
+        <v>0.1964317817014198</v>
       </c>
       <c r="G23">
-        <v>-0.3187189067077097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1025683495834092</v>
+      </c>
+      <c r="H23">
+        <v>-0.1269346618870626</v>
+      </c>
+      <c r="I23">
+        <v>0.0149246490282382</v>
+      </c>
+      <c r="J23">
+        <v>-0.07524090816833075</v>
+      </c>
+      <c r="K23">
+        <v>0.05709192014697684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08564424170100007</v>
+        <v>-0.08283439426547251</v>
       </c>
       <c r="C24">
-        <v>0.04622573929026099</v>
+        <v>-0.0612046325166322</v>
       </c>
       <c r="D24">
-        <v>-0.02159612038326345</v>
+        <v>0.02224089089345906</v>
       </c>
       <c r="E24">
-        <v>0.03516636438150657</v>
+        <v>-0.02624267838476733</v>
       </c>
       <c r="F24">
-        <v>0.003847382953524204</v>
+        <v>0.0119555280946224</v>
       </c>
       <c r="G24">
-        <v>0.1168695145964162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.1015587413507474</v>
+      </c>
+      <c r="H24">
+        <v>0.09820540810151196</v>
+      </c>
+      <c r="I24">
+        <v>0.00632686667418505</v>
+      </c>
+      <c r="J24">
+        <v>-0.1188300397945987</v>
+      </c>
+      <c r="K24">
+        <v>0.03731237926760197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07597057828530572</v>
+        <v>-0.08442335996752283</v>
       </c>
       <c r="C25">
-        <v>0.01856020972188203</v>
+        <v>-0.04446928642823503</v>
       </c>
       <c r="D25">
-        <v>-0.02456679241063977</v>
+        <v>0.03138352198473521</v>
       </c>
       <c r="E25">
-        <v>0.02518265302177514</v>
+        <v>-0.05361816261051282</v>
       </c>
       <c r="F25">
-        <v>-0.0001468596528229909</v>
+        <v>0.01819378791109615</v>
       </c>
       <c r="G25">
-        <v>0.1107210071199712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1018332105390587</v>
+      </c>
+      <c r="H25">
+        <v>0.09153486403112802</v>
+      </c>
+      <c r="I25">
+        <v>-0.003870070925427597</v>
+      </c>
+      <c r="J25">
+        <v>-0.09595730225101581</v>
+      </c>
+      <c r="K25">
+        <v>0.02429536380205288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05188934838354786</v>
+        <v>-0.04466943906108978</v>
       </c>
       <c r="C26">
-        <v>0.02075355199530841</v>
+        <v>-0.009743097812678401</v>
       </c>
       <c r="D26">
-        <v>-0.0328971762773994</v>
+        <v>-0.0115524112704539</v>
       </c>
       <c r="E26">
-        <v>0.01251561496871154</v>
+        <v>0.01444628590062614</v>
       </c>
       <c r="F26">
-        <v>0.03025013124015145</v>
+        <v>-0.004644446341761997</v>
       </c>
       <c r="G26">
-        <v>0.05701737238529147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.05453662985680057</v>
+      </c>
+      <c r="H26">
+        <v>0.03547726113685152</v>
+      </c>
+      <c r="I26">
+        <v>-0.01202998812909894</v>
+      </c>
+      <c r="J26">
+        <v>0.03298145208709273</v>
+      </c>
+      <c r="K26">
+        <v>-0.01732723830953186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06088782616183632</v>
+        <v>-0.1225924952847096</v>
       </c>
       <c r="C28">
-        <v>-0.2963186390045163</v>
+        <v>0.3036634976407095</v>
       </c>
       <c r="D28">
-        <v>-0.06047618503883122</v>
+        <v>0.006273809039829438</v>
       </c>
       <c r="E28">
-        <v>-0.0339106614686954</v>
+        <v>-0.005386472040892009</v>
       </c>
       <c r="F28">
-        <v>-0.04012363949204915</v>
+        <v>0.008366794925182868</v>
       </c>
       <c r="G28">
-        <v>-0.02599606386975675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01491736237336508</v>
+      </c>
+      <c r="H28">
+        <v>0.008553624981049526</v>
+      </c>
+      <c r="I28">
+        <v>0.01403456438308975</v>
+      </c>
+      <c r="J28">
+        <v>-0.004829106956981608</v>
+      </c>
+      <c r="K28">
+        <v>-0.01999971879909237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05761711551737822</v>
+        <v>-0.04108047737935567</v>
       </c>
       <c r="C29">
-        <v>0.00779802644323176</v>
+        <v>-0.01988269200191941</v>
       </c>
       <c r="D29">
-        <v>-0.03096581656493615</v>
+        <v>0.01076778983997264</v>
       </c>
       <c r="E29">
-        <v>0.04330400827101558</v>
+        <v>-0.01656622230297189</v>
       </c>
       <c r="F29">
-        <v>0.03790402157917377</v>
+        <v>0.02905656114824554</v>
       </c>
       <c r="G29">
-        <v>0.05119711229861</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09679295923588831</v>
+      </c>
+      <c r="H29">
+        <v>0.04204082251283935</v>
+      </c>
+      <c r="I29">
+        <v>-0.006934364871607684</v>
+      </c>
+      <c r="J29">
+        <v>0.04616479136536087</v>
+      </c>
+      <c r="K29">
+        <v>-0.04717723448995195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1153574763970515</v>
+        <v>-0.105493181520845</v>
       </c>
       <c r="C30">
-        <v>-0.02031785866657957</v>
+        <v>-0.04658958318847423</v>
       </c>
       <c r="D30">
-        <v>-0.07517336018397448</v>
+        <v>0.06054479053210143</v>
       </c>
       <c r="E30">
-        <v>0.1954730828802762</v>
+        <v>-0.01023751924049646</v>
       </c>
       <c r="F30">
-        <v>-0.06168520924645728</v>
+        <v>-0.001871576534334378</v>
       </c>
       <c r="G30">
-        <v>0.151257047469931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1749988939392039</v>
+      </c>
+      <c r="H30">
+        <v>0.1016825961098965</v>
+      </c>
+      <c r="I30">
+        <v>0.2125138659277604</v>
+      </c>
+      <c r="J30">
+        <v>-0.08786028779804211</v>
+      </c>
+      <c r="K30">
+        <v>0.06523463207175004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05733506772440961</v>
+        <v>-0.03835195699795056</v>
       </c>
       <c r="C31">
-        <v>0.01810187509835695</v>
+        <v>-0.03823289898310914</v>
       </c>
       <c r="D31">
-        <v>0.009888828297040802</v>
+        <v>0.004739831388074243</v>
       </c>
       <c r="E31">
-        <v>0.008991284709578494</v>
+        <v>0.00101544150758904</v>
       </c>
       <c r="F31">
-        <v>0.02605273809330239</v>
+        <v>0.003746718804969005</v>
       </c>
       <c r="G31">
-        <v>0.006874253936888664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02719463417873438</v>
+      </c>
+      <c r="H31">
+        <v>0.01576925314031301</v>
+      </c>
+      <c r="I31">
+        <v>-0.03385629579137855</v>
+      </c>
+      <c r="J31">
+        <v>0.01951754417809266</v>
+      </c>
+      <c r="K31">
+        <v>0.006967065980405685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03811684964930681</v>
+        <v>-0.05299048185061173</v>
       </c>
       <c r="C32">
-        <v>-0.01767440812691384</v>
+        <v>-0.00256726533685558</v>
       </c>
       <c r="D32">
-        <v>-0.00375824995732963</v>
+        <v>-0.01006567104362132</v>
       </c>
       <c r="E32">
-        <v>0.08605297403404882</v>
+        <v>-0.02961054030686572</v>
       </c>
       <c r="F32">
-        <v>0.07795536872540866</v>
+        <v>-0.05201999494917608</v>
       </c>
       <c r="G32">
-        <v>0.05778957393338082</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02624845904749694</v>
+      </c>
+      <c r="H32">
+        <v>0.04471086308423561</v>
+      </c>
+      <c r="I32">
+        <v>-0.006536883511412147</v>
+      </c>
+      <c r="J32">
+        <v>0.0195444737641247</v>
+      </c>
+      <c r="K32">
+        <v>-0.00286405599477593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1128168558929373</v>
+        <v>-0.09548457941567137</v>
       </c>
       <c r="C33">
-        <v>0.0174086288391357</v>
+        <v>-0.05096486496506674</v>
       </c>
       <c r="D33">
-        <v>0.008033326048839223</v>
+        <v>0.06516392572803578</v>
       </c>
       <c r="E33">
-        <v>0.008907285374888982</v>
+        <v>-0.03263191524083844</v>
       </c>
       <c r="F33">
-        <v>0.05301081339797675</v>
+        <v>0.01501962019810234</v>
       </c>
       <c r="G33">
-        <v>0.05854227335354255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04245501191815702</v>
+      </c>
+      <c r="H33">
+        <v>0.05306447707622398</v>
+      </c>
+      <c r="I33">
+        <v>-0.009781588942576299</v>
+      </c>
+      <c r="J33">
+        <v>-0.01585370128959786</v>
+      </c>
+      <c r="K33">
+        <v>0.02617291502230592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06680776945340078</v>
+        <v>-0.06747110968872815</v>
       </c>
       <c r="C34">
-        <v>0.05212210136963433</v>
+        <v>-0.05028214391726602</v>
       </c>
       <c r="D34">
-        <v>-0.006750223724207635</v>
+        <v>0.02799740082110028</v>
       </c>
       <c r="E34">
-        <v>0.01707036196709508</v>
+        <v>-0.02725750666213867</v>
       </c>
       <c r="F34">
-        <v>0.01971407664307995</v>
+        <v>0.01311360948737165</v>
       </c>
       <c r="G34">
-        <v>0.09211937463832549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.09496840773531738</v>
+      </c>
+      <c r="H34">
+        <v>0.09091488202726067</v>
+      </c>
+      <c r="I34">
+        <v>0.003681217333915146</v>
+      </c>
+      <c r="J34">
+        <v>-0.08965484785146616</v>
+      </c>
+      <c r="K34">
+        <v>-0.007314071893740145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04406054871972881</v>
+        <v>-0.02048025141893428</v>
       </c>
       <c r="C35">
-        <v>0.006207454567168088</v>
+        <v>-0.01656256600391502</v>
       </c>
       <c r="D35">
-        <v>0.01702871252839489</v>
+        <v>0.01254056067202467</v>
       </c>
       <c r="E35">
-        <v>0.003567087321251285</v>
+        <v>-0.006285110084731559</v>
       </c>
       <c r="F35">
-        <v>-0.03614788146080825</v>
+        <v>0.006987522514956782</v>
       </c>
       <c r="G35">
-        <v>0.04990048941065362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05624892352440317</v>
+      </c>
+      <c r="H35">
+        <v>0.01844646793043028</v>
+      </c>
+      <c r="I35">
+        <v>0.01443270889476102</v>
+      </c>
+      <c r="J35">
+        <v>-0.005604370306277443</v>
+      </c>
+      <c r="K35">
+        <v>-0.06407207410606992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03719384703539653</v>
+        <v>-0.02897569531796266</v>
       </c>
       <c r="C36">
-        <v>0.001851244190159584</v>
+        <v>-0.01182826258232638</v>
       </c>
       <c r="D36">
-        <v>-0.02474919012958422</v>
+        <v>0.003557990402718411</v>
       </c>
       <c r="E36">
-        <v>0.0335664235364737</v>
+        <v>0.004441083298045174</v>
       </c>
       <c r="F36">
-        <v>0.0061746577635886</v>
+        <v>0.006684527831881999</v>
       </c>
       <c r="G36">
-        <v>0.06328216115692925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.05812018986101024</v>
+      </c>
+      <c r="H36">
+        <v>0.05314615156854161</v>
+      </c>
+      <c r="I36">
+        <v>0.0113936564627873</v>
+      </c>
+      <c r="J36">
+        <v>0.02808176589804443</v>
+      </c>
+      <c r="K36">
+        <v>0.009345937894116186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05296986607939268</v>
+        <v>-0.02225281583799001</v>
       </c>
       <c r="C38">
-        <v>0.01613418011600584</v>
+        <v>-0.02765353130263392</v>
       </c>
       <c r="D38">
-        <v>-0.0008696679843633789</v>
+        <v>0.01193905522449535</v>
       </c>
       <c r="E38">
-        <v>0.009852194824147491</v>
+        <v>0.01299061214392151</v>
       </c>
       <c r="F38">
-        <v>-0.0001191622376518037</v>
+        <v>0.01977227215718297</v>
       </c>
       <c r="G38">
-        <v>0.04636436333337634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01376893741208076</v>
+      </c>
+      <c r="H38">
+        <v>-0.05208635525034561</v>
+      </c>
+      <c r="I38">
+        <v>0.009637875716021363</v>
+      </c>
+      <c r="J38">
+        <v>0.0124423446066243</v>
+      </c>
+      <c r="K38">
+        <v>0.01669682237911118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1084886071931697</v>
+        <v>-0.1137116338118854</v>
       </c>
       <c r="C39">
-        <v>0.04005876411018502</v>
+        <v>-0.07718139776691491</v>
       </c>
       <c r="D39">
-        <v>-0.004509697245553024</v>
+        <v>0.06480716864194477</v>
       </c>
       <c r="E39">
-        <v>0.06750164441586172</v>
+        <v>-0.1046143592198946</v>
       </c>
       <c r="F39">
-        <v>0.01020223389034802</v>
+        <v>0.005527508799624317</v>
       </c>
       <c r="G39">
-        <v>0.1573606259706793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1395299731509957</v>
+      </c>
+      <c r="H39">
+        <v>0.07737064056760735</v>
+      </c>
+      <c r="I39">
+        <v>0.02506310807565787</v>
+      </c>
+      <c r="J39">
+        <v>-0.1805346484174879</v>
+      </c>
+      <c r="K39">
+        <v>0.01705041028719121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05551184799297813</v>
+        <v>-0.02178677720430676</v>
       </c>
       <c r="C40">
-        <v>0.03228708154299138</v>
+        <v>-0.05743654666911255</v>
       </c>
       <c r="D40">
-        <v>0.02137924133153668</v>
+        <v>0.0006674479872251839</v>
       </c>
       <c r="E40">
-        <v>0.1013594938166285</v>
+        <v>0.05932619165649099</v>
       </c>
       <c r="F40">
-        <v>-0.01506938728030633</v>
+        <v>0.02529117966504232</v>
       </c>
       <c r="G40">
-        <v>0.2530181567227158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.08127216749580306</v>
+      </c>
+      <c r="H40">
+        <v>0.09363131689340091</v>
+      </c>
+      <c r="I40">
+        <v>0.09559822204383234</v>
+      </c>
+      <c r="J40">
+        <v>0.0135692247041607</v>
+      </c>
+      <c r="K40">
+        <v>-0.01567869357409143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04914910030715491</v>
+        <v>-0.03403539855806612</v>
       </c>
       <c r="C41">
-        <v>0.02848818802061613</v>
+        <v>-0.02726603922571869</v>
       </c>
       <c r="D41">
-        <v>-0.000892644630753119</v>
+        <v>-0.00280502790079171</v>
       </c>
       <c r="E41">
-        <v>-0.01301322398811323</v>
+        <v>-0.01449647340655172</v>
       </c>
       <c r="F41">
-        <v>0.02169091416528265</v>
+        <v>0.007559289624732319</v>
       </c>
       <c r="G41">
-        <v>0.071785644181738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02617767203896115</v>
+      </c>
+      <c r="H41">
+        <v>0.009831403827996976</v>
+      </c>
+      <c r="I41">
+        <v>-0.01195746164210242</v>
+      </c>
+      <c r="J41">
+        <v>0.005114472798833696</v>
+      </c>
+      <c r="K41">
+        <v>-0.01730721163993599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07427521895716011</v>
+        <v>-0.04898579143923567</v>
       </c>
       <c r="C43">
-        <v>0.02650086413888356</v>
+        <v>-0.02736961010252285</v>
       </c>
       <c r="D43">
-        <v>-0.02107862639007781</v>
+        <v>0.02211092916276242</v>
       </c>
       <c r="E43">
-        <v>0.02418735612654193</v>
+        <v>0.0008140975776549401</v>
       </c>
       <c r="F43">
-        <v>0.01773154061859226</v>
+        <v>0.01899914159556267</v>
       </c>
       <c r="G43">
-        <v>0.01550903780065075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.03616952098189527</v>
+      </c>
+      <c r="H43">
+        <v>-0.008276797814238583</v>
+      </c>
+      <c r="I43">
+        <v>-0.00392443588007262</v>
+      </c>
+      <c r="J43">
+        <v>0.0001167909773162191</v>
+      </c>
+      <c r="K43">
+        <v>0.01092632953771439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07337275669664364</v>
+        <v>-0.1034821321292024</v>
       </c>
       <c r="C44">
-        <v>0.01827585074276426</v>
+        <v>-0.08274111782002823</v>
       </c>
       <c r="D44">
-        <v>-0.09881944235393407</v>
+        <v>0.06343381925922408</v>
       </c>
       <c r="E44">
-        <v>0.0585585705060432</v>
+        <v>0.0578671174909696</v>
       </c>
       <c r="F44">
-        <v>0.03968096026055262</v>
+        <v>0.1226871819454711</v>
       </c>
       <c r="G44">
-        <v>0.112236398064222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.214229210002706</v>
+      </c>
+      <c r="H44">
+        <v>0.1092211280345744</v>
+      </c>
+      <c r="I44">
+        <v>0.08509316984174496</v>
+      </c>
+      <c r="J44">
+        <v>0.06548534922779899</v>
+      </c>
+      <c r="K44">
+        <v>-0.1124024659742999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04695498390738483</v>
+        <v>-0.02932742414375777</v>
       </c>
       <c r="C46">
-        <v>0.03727447061579139</v>
+        <v>-0.02085916634019836</v>
       </c>
       <c r="D46">
-        <v>-0.03188633590956767</v>
+        <v>0.01450444013893717</v>
       </c>
       <c r="E46">
-        <v>0.05127766439254267</v>
+        <v>0.02603430248634728</v>
       </c>
       <c r="F46">
-        <v>0.01762152373684646</v>
+        <v>0.04045166634725749</v>
       </c>
       <c r="G46">
-        <v>0.04099550736915601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05884739171058814</v>
+      </c>
+      <c r="H46">
+        <v>0.0165331092650431</v>
+      </c>
+      <c r="I46">
+        <v>0.008506095577624559</v>
+      </c>
+      <c r="J46">
+        <v>0.02673674518999588</v>
+      </c>
+      <c r="K46">
+        <v>-0.06988435725857686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04916218020652505</v>
+        <v>-0.04138710735808497</v>
       </c>
       <c r="C47">
-        <v>0.0006036431820528033</v>
+        <v>-0.01872956220113603</v>
       </c>
       <c r="D47">
-        <v>-0.0108144006355308</v>
+        <v>0.009457814050202434</v>
       </c>
       <c r="E47">
-        <v>0.0629660102551358</v>
+        <v>0.009231188577480984</v>
       </c>
       <c r="F47">
-        <v>-0.006462997672884336</v>
+        <v>0.006931539898977377</v>
       </c>
       <c r="G47">
-        <v>-0.00654939796256563</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04057091816383132</v>
+      </c>
+      <c r="H47">
+        <v>0.01645985204691884</v>
+      </c>
+      <c r="I47">
+        <v>0.006319454599174961</v>
+      </c>
+      <c r="J47">
+        <v>0.04312104149110184</v>
+      </c>
+      <c r="K47">
+        <v>-0.02316440149981162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04351326139895907</v>
+        <v>-0.04277576557559716</v>
       </c>
       <c r="C48">
-        <v>-0.00167056362245824</v>
+        <v>-0.01025048589573503</v>
       </c>
       <c r="D48">
-        <v>0.002745494462970285</v>
+        <v>0.005071958780113412</v>
       </c>
       <c r="E48">
-        <v>0.0358816079218854</v>
+        <v>-0.001227508634678195</v>
       </c>
       <c r="F48">
-        <v>0.005713517035960587</v>
+        <v>0.009281572908003492</v>
       </c>
       <c r="G48">
-        <v>0.04789208816996211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05573059973450346</v>
+      </c>
+      <c r="H48">
+        <v>0.04843326917177484</v>
+      </c>
+      <c r="I48">
+        <v>0.02317422292191122</v>
+      </c>
+      <c r="J48">
+        <v>-0.001298983461751183</v>
+      </c>
+      <c r="K48">
+        <v>-0.02653141755436163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2368055176876102</v>
+        <v>-0.2269128630057059</v>
       </c>
       <c r="C49">
-        <v>0.08597177842664679</v>
+        <v>-0.0523299137369511</v>
       </c>
       <c r="D49">
-        <v>-0.02828080639114475</v>
+        <v>-0.07377266337170807</v>
       </c>
       <c r="E49">
-        <v>-0.0957319717325027</v>
+        <v>-0.04406513242331585</v>
       </c>
       <c r="F49">
-        <v>-0.1683017841729387</v>
+        <v>0.02063496627242024</v>
       </c>
       <c r="G49">
-        <v>-0.0884532703415743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.1976556312492564</v>
+      </c>
+      <c r="H49">
+        <v>-0.1475311851458277</v>
+      </c>
+      <c r="I49">
+        <v>0.1739316744468678</v>
+      </c>
+      <c r="J49">
+        <v>-0.2250273995904532</v>
+      </c>
+      <c r="K49">
+        <v>0.1855839302141425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05525704763320335</v>
+        <v>-0.04322547247218261</v>
       </c>
       <c r="C50">
-        <v>0.01456627539696147</v>
+        <v>-0.02820885454564281</v>
       </c>
       <c r="D50">
-        <v>0.006485484699022214</v>
+        <v>-0.002211675034066796</v>
       </c>
       <c r="E50">
-        <v>0.02872801316029138</v>
+        <v>0.00252365748057692</v>
       </c>
       <c r="F50">
-        <v>0.0502550884542147</v>
+        <v>-0.001921955195112506</v>
       </c>
       <c r="G50">
-        <v>-0.001524979913478297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04916445702294753</v>
+      </c>
+      <c r="H50">
+        <v>0.02838613451074361</v>
+      </c>
+      <c r="I50">
+        <v>-0.01862084186318962</v>
+      </c>
+      <c r="J50">
+        <v>0.02348103662128566</v>
+      </c>
+      <c r="K50">
+        <v>0.02636654169758196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03573154108149359</v>
+        <v>-0.02069653079059934</v>
       </c>
       <c r="C51">
-        <v>0.01372358364646315</v>
+        <v>0.001217563395386258</v>
       </c>
       <c r="D51">
-        <v>-0.01280486857215631</v>
+        <v>0.01249505876589138</v>
       </c>
       <c r="E51">
-        <v>-0.009353673262737644</v>
+        <v>-0.002412751783236018</v>
       </c>
       <c r="F51">
-        <v>-0.003473290634419958</v>
+        <v>0.02351717537832571</v>
       </c>
       <c r="G51">
-        <v>0.003842915802473694</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03119222766673321</v>
+      </c>
+      <c r="H51">
+        <v>-0.007575874888744278</v>
+      </c>
+      <c r="I51">
+        <v>0.01782584748863773</v>
+      </c>
+      <c r="J51">
+        <v>-0.03359655527092942</v>
+      </c>
+      <c r="K51">
+        <v>0.02218853112208949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.06936050948494372</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03554893760790691</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01527416103311575</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02356074752415011</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.006241751526367786</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.06521047289421</v>
+      </c>
+      <c r="H52">
+        <v>-0.04316391083390114</v>
+      </c>
+      <c r="I52">
+        <v>-0.1154129245491581</v>
+      </c>
+      <c r="J52">
+        <v>0.00578729851218328</v>
+      </c>
+      <c r="K52">
+        <v>0.0008609827047955878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1567573961299666</v>
+        <v>-0.1604351662241167</v>
       </c>
       <c r="C53">
-        <v>0.001279718305195303</v>
+        <v>-0.03712154632298261</v>
       </c>
       <c r="D53">
-        <v>-0.01172941809534351</v>
+        <v>-0.008832861333492186</v>
       </c>
       <c r="E53">
-        <v>-0.04807039478476016</v>
+        <v>-0.01099330725610044</v>
       </c>
       <c r="F53">
-        <v>0.229423016928592</v>
+        <v>0.02102044457724001</v>
       </c>
       <c r="G53">
-        <v>-0.05698063033384303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0281715966381519</v>
+      </c>
+      <c r="H53">
+        <v>-0.1312632771526878</v>
+      </c>
+      <c r="I53">
+        <v>-0.2603521401556319</v>
+      </c>
+      <c r="J53">
+        <v>0.07988443242630627</v>
+      </c>
+      <c r="K53">
+        <v>0.07590302395012569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05427106780322379</v>
+        <v>-0.05220303864653501</v>
       </c>
       <c r="C54">
-        <v>0.004341429303187128</v>
+        <v>-0.03769211513258355</v>
       </c>
       <c r="D54">
-        <v>-0.02897517629931846</v>
+        <v>-0.0008499888683736257</v>
       </c>
       <c r="E54">
-        <v>0.04370647793768271</v>
+        <v>0.02059317428662885</v>
       </c>
       <c r="F54">
-        <v>0.01547641543616942</v>
+        <v>0.01568115873099492</v>
       </c>
       <c r="G54">
-        <v>0.07797264076244007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06986409735700454</v>
+      </c>
+      <c r="H54">
+        <v>0.1355413276660949</v>
+      </c>
+      <c r="I54">
+        <v>-0.01272796192570762</v>
+      </c>
+      <c r="J54">
+        <v>0.1096322935927076</v>
+      </c>
+      <c r="K54">
+        <v>-0.09729441978113564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09296280716989003</v>
+        <v>-0.08755894274561772</v>
       </c>
       <c r="C55">
-        <v>0.01490550907926171</v>
+        <v>-0.03279926309416888</v>
       </c>
       <c r="D55">
-        <v>-0.01947266055676897</v>
+        <v>0.0480017848910827</v>
       </c>
       <c r="E55">
-        <v>0.004462002973993207</v>
+        <v>-0.03220908543441876</v>
       </c>
       <c r="F55">
-        <v>0.1735828886296314</v>
+        <v>0.03228323985727482</v>
       </c>
       <c r="G55">
-        <v>-0.01047624441806653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02170941188421376</v>
+      </c>
+      <c r="H55">
+        <v>-0.03514383769126191</v>
+      </c>
+      <c r="I55">
+        <v>-0.1639071532083905</v>
+      </c>
+      <c r="J55">
+        <v>0.03508985874617368</v>
+      </c>
+      <c r="K55">
+        <v>0.02233047589057174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1598504013652491</v>
+        <v>-0.157746843201322</v>
       </c>
       <c r="C56">
-        <v>-0.002839924407390351</v>
+        <v>-0.04729403170883265</v>
       </c>
       <c r="D56">
-        <v>-0.007005083528549984</v>
+        <v>0.01383282880579494</v>
       </c>
       <c r="E56">
-        <v>-0.04645043750604334</v>
+        <v>-0.03597914393262187</v>
       </c>
       <c r="F56">
-        <v>0.2271543172690734</v>
+        <v>0.04286524764312372</v>
       </c>
       <c r="G56">
-        <v>-0.0632139564328079</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.06185744630372256</v>
+      </c>
+      <c r="H56">
+        <v>-0.09926447710791488</v>
+      </c>
+      <c r="I56">
+        <v>-0.2141723639370636</v>
+      </c>
+      <c r="J56">
+        <v>0.04815183696519086</v>
+      </c>
+      <c r="K56">
+        <v>0.0719087703945481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03358167944290413</v>
+        <v>-0.04369701943098169</v>
       </c>
       <c r="C58">
-        <v>0.05669353786595249</v>
+        <v>-0.0426375495587866</v>
       </c>
       <c r="D58">
-        <v>0.02750721130518942</v>
+        <v>0.01559974639907754</v>
       </c>
       <c r="E58">
-        <v>0.2805115743843327</v>
+        <v>0.08381604793179531</v>
       </c>
       <c r="F58">
-        <v>-0.5003828966177576</v>
+        <v>0.01185454292655278</v>
       </c>
       <c r="G58">
-        <v>0.1499410853876581</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1052126813798117</v>
+      </c>
+      <c r="H58">
+        <v>-0.01555087916038314</v>
+      </c>
+      <c r="I58">
+        <v>0.2097322865814229</v>
+      </c>
+      <c r="J58">
+        <v>-0.04038120426687448</v>
+      </c>
+      <c r="K58">
+        <v>-0.2273374025069234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1538727349136885</v>
+        <v>-0.1911260042121256</v>
       </c>
       <c r="C59">
-        <v>-0.3884166860136809</v>
+        <v>0.3019406255399053</v>
       </c>
       <c r="D59">
-        <v>-0.08452202198797759</v>
+        <v>0.0152963337204735</v>
       </c>
       <c r="E59">
-        <v>-0.07452244842082047</v>
+        <v>-0.03802730307273691</v>
       </c>
       <c r="F59">
-        <v>0.04594627249135853</v>
+        <v>0.02193568711060608</v>
       </c>
       <c r="G59">
-        <v>0.03025895408057747</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.03194368305646119</v>
+      </c>
+      <c r="H59">
+        <v>0.06007718313469355</v>
+      </c>
+      <c r="I59">
+        <v>-0.07653198397667205</v>
+      </c>
+      <c r="J59">
+        <v>-0.00787054329766634</v>
+      </c>
+      <c r="K59">
+        <v>-0.00258425368265677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2649200919018053</v>
+        <v>-0.2502640339914335</v>
       </c>
       <c r="C60">
-        <v>0.06236014064273507</v>
+        <v>-0.1083275810463117</v>
       </c>
       <c r="D60">
-        <v>-0.07476409862550337</v>
+        <v>-0.07805645729891163</v>
       </c>
       <c r="E60">
-        <v>-0.08421740011601531</v>
+        <v>-0.04994615709643586</v>
       </c>
       <c r="F60">
-        <v>-0.08160223422186756</v>
+        <v>0.06114466340010966</v>
       </c>
       <c r="G60">
-        <v>-0.1958336081916198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08332431422486981</v>
+      </c>
+      <c r="H60">
+        <v>-0.1158545261741674</v>
+      </c>
+      <c r="I60">
+        <v>0.1240332591441378</v>
+      </c>
+      <c r="J60">
+        <v>0.00456076709583696</v>
+      </c>
+      <c r="K60">
+        <v>0.2195099744529427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09348588750186963</v>
+        <v>-0.1042342540382233</v>
       </c>
       <c r="C61">
-        <v>0.01702455658938709</v>
+        <v>-0.04571941301719169</v>
       </c>
       <c r="D61">
-        <v>-0.005531627154743443</v>
+        <v>0.04427534519983663</v>
       </c>
       <c r="E61">
-        <v>0.02143370080261265</v>
+        <v>-0.07210932928484044</v>
       </c>
       <c r="F61">
-        <v>0.02102846579746465</v>
+        <v>0.03017966150855968</v>
       </c>
       <c r="G61">
-        <v>0.06710319911794219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1239754700326755</v>
+      </c>
+      <c r="H61">
+        <v>0.08303049915844772</v>
+      </c>
+      <c r="I61">
+        <v>-0.03855379192019628</v>
+      </c>
+      <c r="J61">
+        <v>-0.1046431836668672</v>
+      </c>
+      <c r="K61">
+        <v>-0.008255386146381705</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1453040646033651</v>
+        <v>-0.1514635898886913</v>
       </c>
       <c r="C62">
-        <v>0.02559641665312098</v>
+        <v>-0.04782046658253472</v>
       </c>
       <c r="D62">
-        <v>0.03230231969448873</v>
+        <v>0.0159465790285259</v>
       </c>
       <c r="E62">
-        <v>-0.1180111891938611</v>
+        <v>-0.03756540624606483</v>
       </c>
       <c r="F62">
-        <v>0.2400081848285473</v>
+        <v>0.01399167050713605</v>
       </c>
       <c r="G62">
-        <v>-0.0273017785330352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02832747329110666</v>
+      </c>
+      <c r="H62">
+        <v>-0.1082102345923107</v>
+      </c>
+      <c r="I62">
+        <v>-0.2209303781182448</v>
+      </c>
+      <c r="J62">
+        <v>0.07809102680666229</v>
+      </c>
+      <c r="K62">
+        <v>0.05405681101167065</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04271554840679428</v>
+        <v>-0.04148244105619974</v>
       </c>
       <c r="C63">
-        <v>0.0121878310549682</v>
+        <v>-0.01358033488205027</v>
       </c>
       <c r="D63">
-        <v>0.007037348885058674</v>
+        <v>0.01626338616868786</v>
       </c>
       <c r="E63">
-        <v>0.01394647360801414</v>
+        <v>0.0003393030146740794</v>
       </c>
       <c r="F63">
-        <v>0.01959806324364842</v>
+        <v>-0.02234615294944538</v>
       </c>
       <c r="G63">
-        <v>0.04723759487828876</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.04709431902138356</v>
+      </c>
+      <c r="H63">
+        <v>0.05565221719102801</v>
+      </c>
+      <c r="I63">
+        <v>0.01593204996070932</v>
+      </c>
+      <c r="J63">
+        <v>0.002942170865457866</v>
+      </c>
+      <c r="K63">
+        <v>0.005008219641893145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1060562971354003</v>
+        <v>-0.100146984827017</v>
       </c>
       <c r="C64">
-        <v>0.009966903282079805</v>
+        <v>-0.03654232246939477</v>
       </c>
       <c r="D64">
-        <v>-0.03798660256963048</v>
+        <v>-0.01071024384938265</v>
       </c>
       <c r="E64">
-        <v>0.03328783708958237</v>
+        <v>-0.004410074448617693</v>
       </c>
       <c r="F64">
-        <v>-0.02303997702352828</v>
+        <v>0.04966517363843962</v>
       </c>
       <c r="G64">
-        <v>0.04953114053612685</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06808114450075194</v>
+      </c>
+      <c r="H64">
+        <v>0.0543777969446587</v>
+      </c>
+      <c r="I64">
+        <v>0.07738354237647752</v>
+      </c>
+      <c r="J64">
+        <v>-0.01950017502202813</v>
+      </c>
+      <c r="K64">
+        <v>0.04964910225159614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.122070790655985</v>
+        <v>-0.1178546834633299</v>
       </c>
       <c r="C65">
-        <v>0.02707389343167173</v>
+        <v>-0.02931721888096196</v>
       </c>
       <c r="D65">
-        <v>-0.02529471443195902</v>
+        <v>0.0001332569733002525</v>
       </c>
       <c r="E65">
-        <v>0.05929912053210367</v>
+        <v>0.008027932013340094</v>
       </c>
       <c r="F65">
-        <v>-0.1832445831938187</v>
+        <v>-0.0341556685668836</v>
       </c>
       <c r="G65">
-        <v>-0.1716157177369837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.05313784828667197</v>
+      </c>
+      <c r="H65">
+        <v>0.01158659251133072</v>
+      </c>
+      <c r="I65">
+        <v>0.2763989171246415</v>
+      </c>
+      <c r="J65">
+        <v>0.5033508989468602</v>
+      </c>
+      <c r="K65">
+        <v>0.2764687075885071</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1595674793743678</v>
+        <v>-0.1415783901336945</v>
       </c>
       <c r="C66">
-        <v>0.05202001269338492</v>
+        <v>-0.1041347271152005</v>
       </c>
       <c r="D66">
-        <v>0.02120378615637062</v>
+        <v>0.06944484237182959</v>
       </c>
       <c r="E66">
-        <v>0.0154840171868903</v>
+        <v>-0.1147889084312346</v>
       </c>
       <c r="F66">
-        <v>0.03648943540323622</v>
+        <v>0.002634859775386822</v>
       </c>
       <c r="G66">
-        <v>0.302347937851677</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1305132111408715</v>
+      </c>
+      <c r="H66">
+        <v>0.05316149785080956</v>
+      </c>
+      <c r="I66">
+        <v>0.00644199330727626</v>
+      </c>
+      <c r="J66">
+        <v>-0.2333512173143755</v>
+      </c>
+      <c r="K66">
+        <v>0.09804210283040894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1040978098885272</v>
+        <v>-0.07216384357982077</v>
       </c>
       <c r="C67">
-        <v>0.03868835230859882</v>
+        <v>-0.03384292401141711</v>
       </c>
       <c r="D67">
-        <v>-0.01849664418486662</v>
+        <v>0.06296618148928504</v>
       </c>
       <c r="E67">
-        <v>-0.01438313406891448</v>
+        <v>0.0004236191750451013</v>
       </c>
       <c r="F67">
-        <v>0.01043592790304568</v>
+        <v>0.03435336237972401</v>
       </c>
       <c r="G67">
-        <v>0.04111159692394246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.08074895708645219</v>
+      </c>
+      <c r="H67">
+        <v>-0.01092519685799545</v>
+      </c>
+      <c r="I67">
+        <v>-0.02564605207611396</v>
+      </c>
+      <c r="J67">
+        <v>-0.0296650391477826</v>
+      </c>
+      <c r="K67">
+        <v>0.06426300695172846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04039292385946051</v>
+        <v>-0.1030407566381632</v>
       </c>
       <c r="C68">
-        <v>-0.2947290519426754</v>
+        <v>0.279486045554901</v>
       </c>
       <c r="D68">
-        <v>-0.03750364225059447</v>
+        <v>0.006590957117528526</v>
       </c>
       <c r="E68">
-        <v>-0.008035459590804072</v>
+        <v>-0.008137009972953047</v>
       </c>
       <c r="F68">
-        <v>-0.01097665463010956</v>
+        <v>-0.01388085666278466</v>
       </c>
       <c r="G68">
-        <v>-0.02205205880747238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02397942418479493</v>
+      </c>
+      <c r="H68">
+        <v>0.03038878184875207</v>
+      </c>
+      <c r="I68">
+        <v>0.002849602844921224</v>
+      </c>
+      <c r="J68">
+        <v>0.01635652846309919</v>
+      </c>
+      <c r="K68">
+        <v>0.01237724980742228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04528602826692108</v>
+        <v>-0.03561495714839145</v>
       </c>
       <c r="C69">
-        <v>0.01617279114969089</v>
+        <v>-0.00102280157063762</v>
       </c>
       <c r="D69">
-        <v>-0.009640134551174517</v>
+        <v>0.02660051424732817</v>
       </c>
       <c r="E69">
-        <v>-0.003196486086096957</v>
+        <v>-0.003245031091946037</v>
       </c>
       <c r="F69">
-        <v>0.01400603565381165</v>
+        <v>0.02270207011074314</v>
       </c>
       <c r="G69">
-        <v>0.03006514579559226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01341536210390443</v>
+      </c>
+      <c r="H69">
+        <v>-0.0002281547448899357</v>
+      </c>
+      <c r="I69">
+        <v>-0.008058486145399725</v>
+      </c>
+      <c r="J69">
+        <v>0.02962439764534999</v>
+      </c>
+      <c r="K69">
+        <v>0.01185761369278897</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07732437273461062</v>
+        <v>-0.0464324103348966</v>
       </c>
       <c r="C70">
-        <v>0.007143415565087081</v>
+        <v>-0.01055101042574004</v>
       </c>
       <c r="D70">
-        <v>-0.03769854838253855</v>
+        <v>0.02192067926965705</v>
       </c>
       <c r="E70">
-        <v>-0.03370236266895855</v>
+        <v>-0.03858676613910284</v>
       </c>
       <c r="F70">
-        <v>-0.07614015220675557</v>
+        <v>0.03704081482053901</v>
       </c>
       <c r="G70">
-        <v>-0.008217905619504735</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.02789093334442045</v>
+      </c>
+      <c r="H70">
+        <v>0.01572876685369754</v>
+      </c>
+      <c r="I70">
+        <v>0.07506778187584814</v>
+      </c>
+      <c r="J70">
+        <v>0.1234955842754711</v>
+      </c>
+      <c r="K70">
+        <v>-0.1574275771214033</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04904993869988265</v>
+        <v>-0.1179912529514003</v>
       </c>
       <c r="C71">
-        <v>-0.2979710814717902</v>
+        <v>0.2922809501234789</v>
       </c>
       <c r="D71">
-        <v>-0.0551764574477909</v>
+        <v>-0.003675477610003888</v>
       </c>
       <c r="E71">
-        <v>-0.01210630225126316</v>
+        <v>-0.005766796215669747</v>
       </c>
       <c r="F71">
-        <v>-0.01226774798564389</v>
+        <v>0.01338085610710715</v>
       </c>
       <c r="G71">
-        <v>0.01062302098573641</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04091090722164881</v>
+      </c>
+      <c r="H71">
+        <v>0.02532545229053066</v>
+      </c>
+      <c r="I71">
+        <v>0.003853638553127264</v>
+      </c>
+      <c r="J71">
+        <v>-0.01393421054924909</v>
+      </c>
+      <c r="K71">
+        <v>0.04040538110936885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1479906293292462</v>
+        <v>-0.1476847046389688</v>
       </c>
       <c r="C72">
-        <v>-0.04669628836051173</v>
+        <v>-0.01245991866161733</v>
       </c>
       <c r="D72">
-        <v>0.2370027798030727</v>
+        <v>0.03014410990808563</v>
       </c>
       <c r="E72">
-        <v>-0.02710683180941888</v>
+        <v>0.01148000016025861</v>
       </c>
       <c r="F72">
-        <v>0.03352990127787678</v>
+        <v>-0.1008207359829022</v>
       </c>
       <c r="G72">
-        <v>0.05924025477584655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.00279299108271899</v>
+      </c>
+      <c r="H72">
+        <v>-0.01129095607726151</v>
+      </c>
+      <c r="I72">
+        <v>-0.04551573579416934</v>
+      </c>
+      <c r="J72">
+        <v>0.09867992797018157</v>
+      </c>
+      <c r="K72">
+        <v>0.1276590805570268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2864717947573392</v>
+        <v>-0.2391094166591788</v>
       </c>
       <c r="C73">
-        <v>0.156747686973973</v>
+        <v>-0.1173005283930736</v>
       </c>
       <c r="D73">
-        <v>-0.04497461228281281</v>
+        <v>-0.00172387840950281</v>
       </c>
       <c r="E73">
-        <v>-0.1621919717580922</v>
+        <v>-0.1268464227071233</v>
       </c>
       <c r="F73">
-        <v>-0.3070747360180743</v>
+        <v>0.1240564097800324</v>
       </c>
       <c r="G73">
-        <v>-0.256983132433204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3097367498348138</v>
+      </c>
+      <c r="H73">
+        <v>-0.3103841080091182</v>
+      </c>
+      <c r="I73">
+        <v>0.3307758650078546</v>
+      </c>
+      <c r="J73">
+        <v>-0.2701414071484446</v>
+      </c>
+      <c r="K73">
+        <v>0.1031217988529199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09813375630586443</v>
+        <v>-0.1117521549661065</v>
       </c>
       <c r="C74">
-        <v>0.04036366144141009</v>
+        <v>-0.062045389320627</v>
       </c>
       <c r="D74">
-        <v>1.005982473016112e-05</v>
+        <v>0.03178706489647134</v>
       </c>
       <c r="E74">
-        <v>-0.009548311472768477</v>
+        <v>-0.01331038294105127</v>
       </c>
       <c r="F74">
-        <v>0.09801209741058063</v>
+        <v>0.02007256464338367</v>
       </c>
       <c r="G74">
-        <v>-0.02713322136984455</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06836452344661766</v>
+      </c>
+      <c r="H74">
+        <v>-0.1094805167223024</v>
+      </c>
+      <c r="I74">
+        <v>-0.1141515343336966</v>
+      </c>
+      <c r="J74">
+        <v>0.031493992950596</v>
+      </c>
+      <c r="K74">
+        <v>0.02943884598330069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09273762898540323</v>
+        <v>-0.107679684297077</v>
       </c>
       <c r="C75">
-        <v>0.01645384641552313</v>
+        <v>-0.04538120779098206</v>
       </c>
       <c r="D75">
-        <v>0.01938532511726557</v>
+        <v>0.005379594896977587</v>
       </c>
       <c r="E75">
-        <v>-0.03234901258072069</v>
+        <v>-0.01077276569124448</v>
       </c>
       <c r="F75">
-        <v>0.1145548545994382</v>
+        <v>-0.001140312191106839</v>
       </c>
       <c r="G75">
-        <v>-0.06415148136250183</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.008500012816373243</v>
+      </c>
+      <c r="H75">
+        <v>-0.06133923511676873</v>
+      </c>
+      <c r="I75">
+        <v>-0.1393825779906918</v>
+      </c>
+      <c r="J75">
+        <v>0.03754496397737789</v>
+      </c>
+      <c r="K75">
+        <v>0.001201451236004919</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1358649302000984</v>
+        <v>-0.05755375347658213</v>
       </c>
       <c r="C76">
-        <v>0.03169691719788046</v>
+        <v>-0.03081964531998173</v>
       </c>
       <c r="D76">
-        <v>-0.01789001517011603</v>
+        <v>0.02942488165799357</v>
       </c>
       <c r="E76">
-        <v>0.02318940416322766</v>
+        <v>-0.003574462617675448</v>
       </c>
       <c r="F76">
-        <v>0.2110655514735488</v>
+        <v>0.04189649361738106</v>
       </c>
       <c r="G76">
-        <v>-0.09775799908242115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03132176289222213</v>
+      </c>
+      <c r="H76">
+        <v>-0.06363012833556238</v>
+      </c>
+      <c r="I76">
+        <v>-0.1355076517894573</v>
+      </c>
+      <c r="J76">
+        <v>0.03107423542936673</v>
+      </c>
+      <c r="K76">
+        <v>0.01328731536713711</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08955060510898458</v>
+        <v>-0.072024030304012</v>
       </c>
       <c r="C77">
-        <v>-0.01168479234514032</v>
+        <v>-0.03125295980040448</v>
       </c>
       <c r="D77">
-        <v>-0.04151471016527642</v>
+        <v>-0.02110043810412111</v>
       </c>
       <c r="E77">
-        <v>0.04778652183158126</v>
+        <v>0.001667257760413336</v>
       </c>
       <c r="F77">
-        <v>-0.1578604080746642</v>
+        <v>0.04006137937158307</v>
       </c>
       <c r="G77">
-        <v>0.1690026104362539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.06345153121691985</v>
+      </c>
+      <c r="H77">
+        <v>0.2313944574222748</v>
+      </c>
+      <c r="I77">
+        <v>0.1366265321136759</v>
+      </c>
+      <c r="J77">
+        <v>0.09367137546650529</v>
+      </c>
+      <c r="K77">
+        <v>0.1427016814027903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2157024901741374</v>
+        <v>-0.1493409779620442</v>
       </c>
       <c r="C78">
-        <v>0.06923037727689933</v>
+        <v>-0.1225387691585561</v>
       </c>
       <c r="D78">
-        <v>-0.06748522143408141</v>
+        <v>0.08820619419514611</v>
       </c>
       <c r="E78">
-        <v>0.1783305488058615</v>
+        <v>0.210132537103471</v>
       </c>
       <c r="F78">
-        <v>0.02297433862740707</v>
+        <v>0.04632290954781366</v>
       </c>
       <c r="G78">
-        <v>0.1117440637235027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6374505827979646</v>
+      </c>
+      <c r="H78">
+        <v>0.5753043420754511</v>
+      </c>
+      <c r="I78">
+        <v>-0.2752150120235695</v>
+      </c>
+      <c r="J78">
+        <v>-0.05058214321801542</v>
+      </c>
+      <c r="K78">
+        <v>0.003555830732339252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1348379795134631</v>
+        <v>-0.1345697464605736</v>
       </c>
       <c r="C79">
-        <v>0.01408725879138142</v>
+        <v>-0.04830317466029073</v>
       </c>
       <c r="D79">
-        <v>-0.0005532290722563129</v>
+        <v>-0.009723987787708537</v>
       </c>
       <c r="E79">
-        <v>-0.01269513908746167</v>
+        <v>-0.01404682728623959</v>
       </c>
       <c r="F79">
-        <v>0.1648515332002609</v>
+        <v>0.006957780741065014</v>
       </c>
       <c r="G79">
-        <v>0.0007075932434127929</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.05070680385143597</v>
+      </c>
+      <c r="H79">
+        <v>-0.06823252103170808</v>
+      </c>
+      <c r="I79">
+        <v>-0.1507510965859011</v>
+      </c>
+      <c r="J79">
+        <v>0.06641875950205348</v>
+      </c>
+      <c r="K79">
+        <v>0.05897977108096045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03354002806077253</v>
+        <v>-0.06088166345751915</v>
       </c>
       <c r="C80">
-        <v>0.009912936600822918</v>
+        <v>-0.04230214889254468</v>
       </c>
       <c r="D80">
-        <v>-0.01704898788644185</v>
+        <v>0.04139288926445964</v>
       </c>
       <c r="E80">
-        <v>-0.02913567953582766</v>
+        <v>-0.06125487254593464</v>
       </c>
       <c r="F80">
-        <v>-0.02132163644517182</v>
+        <v>0.03814944524279939</v>
       </c>
       <c r="G80">
-        <v>0.0723303500853379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02750330540374495</v>
+      </c>
+      <c r="H80">
+        <v>0.04788429137176693</v>
+      </c>
+      <c r="I80">
+        <v>0.01207756850040496</v>
+      </c>
+      <c r="J80">
+        <v>-0.002354843724146386</v>
+      </c>
+      <c r="K80">
+        <v>-0.1094620791080947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1086248507160132</v>
+        <v>-0.1290804691923036</v>
       </c>
       <c r="C81">
-        <v>0.01027028874782251</v>
+        <v>-0.05450531571832977</v>
       </c>
       <c r="D81">
-        <v>-0.01174939242945259</v>
+        <v>0.003171858317833553</v>
       </c>
       <c r="E81">
-        <v>-0.01566271130007403</v>
+        <v>-0.01155726564177491</v>
       </c>
       <c r="F81">
-        <v>0.1426456034500032</v>
+        <v>0.02072478899848749</v>
       </c>
       <c r="G81">
-        <v>-0.03942806989677493</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.06794716535064067</v>
+      </c>
+      <c r="H81">
+        <v>-0.04569610418634751</v>
+      </c>
+      <c r="I81">
+        <v>-0.1430515001663188</v>
+      </c>
+      <c r="J81">
+        <v>0.0222639178917148</v>
+      </c>
+      <c r="K81">
+        <v>0.002429815753510047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1070650122047078</v>
+        <v>-0.1425350008901222</v>
       </c>
       <c r="C82">
-        <v>0.0301264422412885</v>
+        <v>-0.04656319699343331</v>
       </c>
       <c r="D82">
-        <v>-0.05588132950390338</v>
+        <v>-0.001801277771090925</v>
       </c>
       <c r="E82">
-        <v>-0.0552312802356812</v>
+        <v>-0.05496643053472408</v>
       </c>
       <c r="F82">
-        <v>0.2150792937165666</v>
+        <v>0.03548362442899079</v>
       </c>
       <c r="G82">
-        <v>0.001362753797505411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07305213315147616</v>
+      </c>
+      <c r="H82">
+        <v>-0.1411089799333873</v>
+      </c>
+      <c r="I82">
+        <v>-0.253472454045265</v>
+      </c>
+      <c r="J82">
+        <v>-0.007071516369801626</v>
+      </c>
+      <c r="K82">
+        <v>-0.03171507192751332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1040282828908555</v>
+        <v>-0.09149414812784952</v>
       </c>
       <c r="C83">
-        <v>0.0557799071760724</v>
+        <v>-0.1058660938111393</v>
       </c>
       <c r="D83">
-        <v>-0.05670999831701778</v>
+        <v>0.01608230892688526</v>
       </c>
       <c r="E83">
-        <v>-0.02748807635802291</v>
+        <v>-0.007297300251391306</v>
       </c>
       <c r="F83">
-        <v>-0.07652851277578311</v>
+        <v>0.03617742642735582</v>
       </c>
       <c r="G83">
-        <v>0.07073202965322395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03524208626515284</v>
+      </c>
+      <c r="H83">
+        <v>0.03632935661343781</v>
+      </c>
+      <c r="I83">
+        <v>0.04281062826503247</v>
+      </c>
+      <c r="J83">
+        <v>0.1201874779589243</v>
+      </c>
+      <c r="K83">
+        <v>-0.088390658123515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05415190805141618</v>
+        <v>-0.05417397423747816</v>
       </c>
       <c r="C84">
-        <v>0.02117284633563358</v>
+        <v>0.02645468702108024</v>
       </c>
       <c r="D84">
-        <v>0.0428532745759834</v>
+        <v>-0.03064016135150356</v>
       </c>
       <c r="E84">
-        <v>0.03226402061738862</v>
+        <v>-0.01603383048469527</v>
       </c>
       <c r="F84">
-        <v>0.02321687696161648</v>
+        <v>-0.01325091790281668</v>
       </c>
       <c r="G84">
-        <v>-0.0239273714319155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.06941673055558772</v>
+      </c>
+      <c r="H84">
+        <v>0.0459033072273217</v>
+      </c>
+      <c r="I84">
+        <v>0.04501260452674071</v>
+      </c>
+      <c r="J84">
+        <v>-0.329685359530589</v>
+      </c>
+      <c r="K84">
+        <v>-0.1831883351196722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1002950132380997</v>
+        <v>-0.1171583932989013</v>
       </c>
       <c r="C85">
-        <v>0.02158848314180666</v>
+        <v>-0.04357166981022186</v>
       </c>
       <c r="D85">
-        <v>-0.02489870909987527</v>
+        <v>-0.005874168479845425</v>
       </c>
       <c r="E85">
-        <v>-0.01968095965598092</v>
+        <v>-0.02690237499751639</v>
       </c>
       <c r="F85">
-        <v>0.1936582862027762</v>
+        <v>0.04030714028097574</v>
       </c>
       <c r="G85">
-        <v>-0.01484211997942065</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.05344424619987149</v>
+      </c>
+      <c r="H85">
+        <v>-0.06592264645754474</v>
+      </c>
+      <c r="I85">
+        <v>-0.1763720279875035</v>
+      </c>
+      <c r="J85">
+        <v>0.04933178356411053</v>
+      </c>
+      <c r="K85">
+        <v>0.06079954651136237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06996407353860769</v>
+        <v>-0.1403154844685454</v>
       </c>
       <c r="C86">
-        <v>0.02341604880835132</v>
+        <v>-0.0931013223743106</v>
       </c>
       <c r="D86">
-        <v>-0.05119531138622099</v>
+        <v>-0.8850249000099544</v>
       </c>
       <c r="E86">
-        <v>0.0517851356272569</v>
+        <v>0.1450771415251954</v>
       </c>
       <c r="F86">
-        <v>-0.01221415185282657</v>
+        <v>-0.2992394217450495</v>
       </c>
       <c r="G86">
-        <v>0.1241929813855491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07624984965154943</v>
+      </c>
+      <c r="H86">
+        <v>0.09212491226037887</v>
+      </c>
+      <c r="I86">
+        <v>-0.03854428912841176</v>
+      </c>
+      <c r="J86">
+        <v>-0.06227609874179896</v>
+      </c>
+      <c r="K86">
+        <v>-0.03097076329970727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1041142601765506</v>
+        <v>-0.1137356507415509</v>
       </c>
       <c r="C87">
-        <v>0.05715290823161077</v>
+        <v>-0.0876980835058585</v>
       </c>
       <c r="D87">
-        <v>-0.02194590500666437</v>
+        <v>-0.001824871652875108</v>
       </c>
       <c r="E87">
-        <v>0.05676406643411287</v>
+        <v>0.006754811282594834</v>
       </c>
       <c r="F87">
-        <v>-0.01801583308711231</v>
+        <v>0.02724492111737263</v>
       </c>
       <c r="G87">
-        <v>0.1118769734066682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.05288528745597017</v>
+      </c>
+      <c r="H87">
+        <v>0.1468066479773991</v>
+      </c>
+      <c r="I87">
+        <v>0.0876316080108928</v>
+      </c>
+      <c r="J87">
+        <v>0.1251192545635826</v>
+      </c>
+      <c r="K87">
+        <v>-0.06809237711727667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06961592557074864</v>
+        <v>-0.05768766013216176</v>
       </c>
       <c r="C88">
-        <v>0.03504682820758104</v>
+        <v>-0.0477583747681157</v>
       </c>
       <c r="D88">
-        <v>-0.02380588818443142</v>
+        <v>0.0208922685851556</v>
       </c>
       <c r="E88">
-        <v>0.0098541604760174</v>
+        <v>-0.05548925267968404</v>
       </c>
       <c r="F88">
-        <v>0.001525028553584219</v>
+        <v>0.0194639364975851</v>
       </c>
       <c r="G88">
-        <v>0.06286965475105723</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03002358573990074</v>
+      </c>
+      <c r="H88">
+        <v>0.009368282757527628</v>
+      </c>
+      <c r="I88">
+        <v>0.01047510633306995</v>
+      </c>
+      <c r="J88">
+        <v>-0.01843216983245543</v>
+      </c>
+      <c r="K88">
+        <v>0.008473210789122514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09446306479555806</v>
+        <v>-0.170456054514523</v>
       </c>
       <c r="C89">
-        <v>-0.3703889415747104</v>
+        <v>0.3723905078301635</v>
       </c>
       <c r="D89">
-        <v>-0.1109152344026598</v>
+        <v>-0.01376851936210749</v>
       </c>
       <c r="E89">
-        <v>0.01534409509369263</v>
+        <v>0.04618670782231035</v>
       </c>
       <c r="F89">
-        <v>-0.06085733151335969</v>
+        <v>0.05539738429489365</v>
       </c>
       <c r="G89">
-        <v>0.01397010667989314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01655513756151991</v>
+      </c>
+      <c r="H89">
+        <v>0.03752432890352161</v>
+      </c>
+      <c r="I89">
+        <v>0.03445521853850258</v>
+      </c>
+      <c r="J89">
+        <v>-0.01321203101282138</v>
+      </c>
+      <c r="K89">
+        <v>-0.07412187432292931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.0746423099931243</v>
+        <v>-0.1345577539800438</v>
       </c>
       <c r="C90">
-        <v>-0.2973359315035385</v>
+        <v>0.2782828650007522</v>
       </c>
       <c r="D90">
-        <v>-0.05076202056713574</v>
+        <v>-0.008300440148771378</v>
       </c>
       <c r="E90">
-        <v>0.04330074747409911</v>
+        <v>-0.008356342259584692</v>
       </c>
       <c r="F90">
-        <v>-0.0539909904305862</v>
+        <v>0.01543585443549102</v>
       </c>
       <c r="G90">
-        <v>0.04708526678710643</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0294984325054295</v>
+      </c>
+      <c r="H90">
+        <v>0.03523001116930452</v>
+      </c>
+      <c r="I90">
+        <v>0.05225863455992873</v>
+      </c>
+      <c r="J90">
+        <v>-0.04468956614913838</v>
+      </c>
+      <c r="K90">
+        <v>0.0280485777233853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08347329063375275</v>
+        <v>-0.08115118550357513</v>
       </c>
       <c r="C91">
-        <v>0.02298032345039546</v>
+        <v>-0.03911452723468134</v>
       </c>
       <c r="D91">
-        <v>-0.004737000753808715</v>
+        <v>-0.01743842833582228</v>
       </c>
       <c r="E91">
-        <v>-0.01601972677500807</v>
+        <v>-0.008177066227922582</v>
       </c>
       <c r="F91">
-        <v>0.07903000322422167</v>
+        <v>0.0174599697201137</v>
       </c>
       <c r="G91">
-        <v>-0.06428994077018886</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01860978857611929</v>
+      </c>
+      <c r="H91">
+        <v>-0.06069063323493044</v>
+      </c>
+      <c r="I91">
+        <v>-0.1081843643516974</v>
+      </c>
+      <c r="J91">
+        <v>0.035673119177136</v>
+      </c>
+      <c r="K91">
+        <v>0.004031698831659389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06960881338767001</v>
+        <v>-0.1447895187594909</v>
       </c>
       <c r="C92">
-        <v>-0.3406810940655625</v>
+        <v>0.3302838695695211</v>
       </c>
       <c r="D92">
-        <v>-0.07086483055757052</v>
+        <v>-0.001837971873305953</v>
       </c>
       <c r="E92">
-        <v>0.01865742747894031</v>
+        <v>0.03696386727432085</v>
       </c>
       <c r="F92">
-        <v>-0.04126087299162558</v>
+        <v>0.02691652587655621</v>
       </c>
       <c r="G92">
-        <v>-0.03131522475590805</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.005847249208462119</v>
+      </c>
+      <c r="H92">
+        <v>0.07091920712088633</v>
+      </c>
+      <c r="I92">
+        <v>-0.03307049101105636</v>
+      </c>
+      <c r="J92">
+        <v>-0.02091955951097786</v>
+      </c>
+      <c r="K92">
+        <v>-0.002141785982825427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.0863257560008945</v>
+        <v>-0.1390546396931595</v>
       </c>
       <c r="C93">
-        <v>-0.2952998000111363</v>
+        <v>0.3097056826102952</v>
       </c>
       <c r="D93">
-        <v>-0.053621521712949</v>
+        <v>-0.03452310820840369</v>
       </c>
       <c r="E93">
-        <v>0.007433807160918073</v>
+        <v>-0.02866370955435446</v>
       </c>
       <c r="F93">
-        <v>-0.01968345641161154</v>
+        <v>0.009090407637936072</v>
       </c>
       <c r="G93">
-        <v>-0.006742462118287404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02943379677346132</v>
+      </c>
+      <c r="H93">
+        <v>0.006575058880557858</v>
+      </c>
+      <c r="I93">
+        <v>0.02273037834197195</v>
+      </c>
+      <c r="J93">
+        <v>-0.003489666528805626</v>
+      </c>
+      <c r="K93">
+        <v>-0.004721207958719072</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09214493081728624</v>
+        <v>-0.1214449552439257</v>
       </c>
       <c r="C94">
-        <v>0.04587755926814877</v>
+        <v>-0.04941127507464119</v>
       </c>
       <c r="D94">
-        <v>0.005904423842847483</v>
+        <v>0.0231188881341851</v>
       </c>
       <c r="E94">
-        <v>0.00140744123603069</v>
+        <v>0.002519150021598583</v>
       </c>
       <c r="F94">
-        <v>0.1249936599058953</v>
+        <v>0.02822283744621433</v>
       </c>
       <c r="G94">
-        <v>-0.06169955664618618</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01715571929265031</v>
+      </c>
+      <c r="H94">
+        <v>-0.09668108657981132</v>
+      </c>
+      <c r="I94">
+        <v>-0.1208580787317786</v>
+      </c>
+      <c r="J94">
+        <v>-0.004004964187216598</v>
+      </c>
+      <c r="K94">
+        <v>0.02643952594558118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1369065156544184</v>
+        <v>-0.1202025610452385</v>
       </c>
       <c r="C95">
-        <v>0.07142728594420347</v>
+        <v>-0.07011736756883744</v>
       </c>
       <c r="D95">
-        <v>-0.06847513920631537</v>
+        <v>0.01766114906668333</v>
       </c>
       <c r="E95">
-        <v>0.02434801953291776</v>
+        <v>0.01571974878885486</v>
       </c>
       <c r="F95">
-        <v>-0.05365815711655525</v>
+        <v>0.07357919333908504</v>
       </c>
       <c r="G95">
-        <v>0.1186844545274195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.001291096309142695</v>
+      </c>
+      <c r="H95">
+        <v>0.1181292609825875</v>
+      </c>
+      <c r="I95">
+        <v>0.2173093431189699</v>
+      </c>
+      <c r="J95">
+        <v>-0.0327437506022375</v>
+      </c>
+      <c r="K95">
+        <v>-0.1451565945183612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.008536301369953351</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002930882132661823</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.003723981302666652</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005929013397663347</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0006133907970308121</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.00715718395888174</v>
+      </c>
+      <c r="H96">
+        <v>0.01632667844644487</v>
+      </c>
+      <c r="I96">
+        <v>0.007723167801638729</v>
+      </c>
+      <c r="J96">
+        <v>0.01220668142595602</v>
+      </c>
+      <c r="K96">
+        <v>0.01746326449925645</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2053560236755755</v>
+        <v>-0.1881200631737794</v>
       </c>
       <c r="C97">
-        <v>-0.1476298170222917</v>
+        <v>-0.02306721092080762</v>
       </c>
       <c r="D97">
-        <v>0.9011343151483989</v>
+        <v>0.3543661468423404</v>
       </c>
       <c r="E97">
-        <v>0.0363007634572272</v>
+        <v>0.2204668517626657</v>
       </c>
       <c r="F97">
-        <v>-0.04874562600633747</v>
+        <v>-0.8536035865040256</v>
       </c>
       <c r="G97">
-        <v>0.02388309707504712</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01294086297472475</v>
+      </c>
+      <c r="H97">
+        <v>-0.07484128491831568</v>
+      </c>
+      <c r="I97">
+        <v>0.05153625583120182</v>
+      </c>
+      <c r="J97">
+        <v>-0.0561027197285686</v>
+      </c>
+      <c r="K97">
+        <v>-0.02763970974516959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3156141986520992</v>
+        <v>-0.2679882149131402</v>
       </c>
       <c r="C98">
-        <v>0.07279994530986406</v>
+        <v>-0.09163075902783875</v>
       </c>
       <c r="D98">
-        <v>-0.0563435371284613</v>
+        <v>-0.03244096045833313</v>
       </c>
       <c r="E98">
-        <v>-0.2521899003144439</v>
+        <v>-0.001053504252818207</v>
       </c>
       <c r="F98">
-        <v>-0.1967026927286838</v>
+        <v>0.04522577886587236</v>
       </c>
       <c r="G98">
-        <v>-0.2791251659666951</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2464224183783758</v>
+      </c>
+      <c r="H98">
+        <v>-0.2569843235662622</v>
+      </c>
+      <c r="I98">
+        <v>0.06864320667453189</v>
+      </c>
+      <c r="J98">
+        <v>0.1945472859982695</v>
+      </c>
+      <c r="K98">
+        <v>-0.6323626947602662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08359691942013862</v>
+        <v>-0.05633377329798441</v>
       </c>
       <c r="C99">
-        <v>0.03224386060081223</v>
+        <v>-0.02295687010967131</v>
       </c>
       <c r="D99">
-        <v>-0.01052099059677219</v>
+        <v>0.03488890422197877</v>
       </c>
       <c r="E99">
-        <v>-0.0149568814615785</v>
+        <v>0.006986095202104683</v>
       </c>
       <c r="F99">
-        <v>0.01450917141634833</v>
+        <v>0.03618508461001559</v>
       </c>
       <c r="G99">
-        <v>0.01864700837792732</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.007172969074179625</v>
+      </c>
+      <c r="H99">
+        <v>-0.002860205904507529</v>
+      </c>
+      <c r="I99">
+        <v>-0.009574833131194081</v>
+      </c>
+      <c r="J99">
+        <v>-0.03304872159140395</v>
+      </c>
+      <c r="K99">
+        <v>0.04610587115260766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01693644876128481</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01730990231717549</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.101591523067843</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.04402447416636424</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.01168747134163676</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.04829191756537985</v>
+      </c>
+      <c r="H100">
+        <v>-0.01008878161070079</v>
+      </c>
+      <c r="I100">
+        <v>-0.05812883985926145</v>
+      </c>
+      <c r="J100">
+        <v>0.01845520424727103</v>
+      </c>
+      <c r="K100">
+        <v>-0.2545796348809622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05786571175200512</v>
+        <v>-0.04091592384135414</v>
       </c>
       <c r="C101">
-        <v>0.007368737177041247</v>
+        <v>-0.02016287801411565</v>
       </c>
       <c r="D101">
-        <v>-0.03108357312424567</v>
+        <v>0.01128243625427881</v>
       </c>
       <c r="E101">
-        <v>0.04153640358370004</v>
+        <v>-0.0177063914388291</v>
       </c>
       <c r="F101">
-        <v>0.03707533473403001</v>
+        <v>0.0291743542861365</v>
       </c>
       <c r="G101">
-        <v>0.0508464431071448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09366227775954912</v>
+      </c>
+      <c r="H101">
+        <v>0.04134719121245797</v>
+      </c>
+      <c r="I101">
+        <v>-0.009420953981466121</v>
+      </c>
+      <c r="J101">
+        <v>0.043851564021496</v>
+      </c>
+      <c r="K101">
+        <v>-0.04940024180512575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
